--- a/2014.01.21 - Gara Carbonera/ISCRITTI 1 TROFEO CARBONERA 2024.xlsx
+++ b/2014.01.21 - Gara Carbonera/ISCRITTI 1 TROFEO CARBONERA 2024.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\932197\Documents\dati_locali\git-hub\karate\2014.01.21 - Gara Carbonera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D668D44-1B0B-4B8A-A4C0-7D07D75E5A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{106DE8B4-522E-47EE-AC80-8DB7C8C7E02C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$I$159</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$I$160</definedName>
   </definedNames>
-  <calcPr calcId="191028" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="297">
   <si>
     <t>ISCRITTO</t>
   </si>
@@ -921,6 +921,15 @@
   </si>
   <si>
     <t>OLEXANDR</t>
+  </si>
+  <si>
+    <t>QUAGLIARELLO</t>
+  </si>
+  <si>
+    <t>MARIA</t>
+  </si>
+  <si>
+    <t>BIANCA BI-GI</t>
   </si>
 </sst>
 </file>
@@ -1356,10 +1365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I159"/>
+  <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I80" sqref="I80"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2153,42 +2162,42 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>70</v>
+        <v>294</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>71</v>
+        <v>295</v>
       </c>
       <c r="D28" s="2">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>72</v>
+        <v>296</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="H28" s="4">
         <v>12</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D29" s="2">
         <v>2009</v>
@@ -2196,7 +2205,7 @@
       <c r="E29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -2211,16 +2220,16 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D30" s="2">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>17</v>
@@ -2240,21 +2249,21 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D31" s="2">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>72</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -2264,27 +2273,27 @@
         <v>12</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="D32" s="2">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>73</v>
@@ -2293,24 +2302,24 @@
         <v>12</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="D33" s="2">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>81</v>
@@ -2322,24 +2331,24 @@
         <v>12</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D34" s="2">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>81</v>
@@ -2351,24 +2360,24 @@
         <v>12</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D35" s="2">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>81</v>
@@ -2380,21 +2389,21 @@
         <v>12</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D36" s="2">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>17</v>
@@ -2409,27 +2418,27 @@
         <v>12</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="D37" s="2">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>73</v>
@@ -2443,13 +2452,13 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D38" s="2">
         <v>2011</v>
@@ -2472,16 +2481,16 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D39" s="2">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>11</v>
@@ -2501,16 +2510,16 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="D40" s="2">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>11</v>
@@ -2525,27 +2534,27 @@
         <v>12</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D41" s="2">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>73</v>
@@ -2554,21 +2563,21 @@
         <v>12</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D42" s="2">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>11</v>
@@ -2577,33 +2586,33 @@
         <v>49</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="H42" s="4">
         <v>12</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="D43" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>91</v>
+      <c r="F43" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>98</v>
@@ -2612,27 +2621,27 @@
         <v>12</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D44" s="2">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>98</v>
@@ -2641,27 +2650,27 @@
         <v>12</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D45" s="2">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>91</v>
+        <v>17</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>98</v>
@@ -2670,24 +2679,24 @@
         <v>12</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D46" s="2">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>91</v>
@@ -2699,27 +2708,27 @@
         <v>12</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D47" s="2">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>98</v>
@@ -2728,27 +2737,27 @@
         <v>12</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D48" s="2">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>98</v>
@@ -2757,27 +2766,27 @@
         <v>12</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="D49" s="2">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>98</v>
@@ -2786,56 +2795,56 @@
         <v>12</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="D50" s="2">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="H50" s="4">
         <v>12</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D51" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>49</v>
+        <v>17</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>115</v>
@@ -2849,22 +2858,22 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D52" s="2">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>115</v>
@@ -2873,27 +2882,27 @@
         <v>12</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D53" s="2">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>81</v>
+      <c r="F53" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>115</v>
@@ -2902,27 +2911,27 @@
         <v>12</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D54" s="2">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>115</v>
@@ -2931,27 +2940,27 @@
         <v>12</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D55" s="2">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>115</v>
@@ -2960,21 +2969,21 @@
         <v>12</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D56" s="2">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>11</v>
@@ -2989,30 +2998,30 @@
         <v>12</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D57" s="2">
         <v>2016</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>91</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="H57" s="4">
         <v>12</v>
@@ -3023,19 +3032,19 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D58" s="2">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>91</v>
@@ -3047,21 +3056,21 @@
         <v>12</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>131</v>
       </c>
       <c r="D59" s="2">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>11</v>
@@ -3076,24 +3085,24 @@
         <v>12</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D60" s="2">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>91</v>
@@ -3105,27 +3114,27 @@
         <v>12</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D61" s="2">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>130</v>
@@ -3139,19 +3148,19 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="D62" s="2">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>49</v>
@@ -3163,27 +3172,27 @@
         <v>12</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>139</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>130</v>
@@ -3192,27 +3201,27 @@
         <v>12</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D64" s="2">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>130</v>
@@ -3221,27 +3230,27 @@
         <v>12</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D65" s="2">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>130</v>
@@ -3250,21 +3259,21 @@
         <v>12</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D66" s="2">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>11</v>
@@ -3279,27 +3288,27 @@
         <v>12</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>34</v>
+        <v>145</v>
       </c>
       <c r="D67" s="2">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>130</v>
@@ -3308,27 +3317,27 @@
         <v>12</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>148</v>
+        <v>34</v>
       </c>
       <c r="D68" s="2">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>130</v>
@@ -3337,21 +3346,21 @@
         <v>12</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D69" s="2">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>11</v>
@@ -3366,18 +3375,18 @@
         <v>12</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D70" s="2">
         <v>2010</v>
@@ -3386,7 +3395,7 @@
         <v>11</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>130</v>
@@ -3400,13 +3409,13 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D71" s="2">
         <v>2010</v>
@@ -3415,7 +3424,7 @@
         <v>11</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>130</v>
@@ -3429,13 +3438,13 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>20</v>
+        <v>154</v>
       </c>
       <c r="D72" s="2">
         <v>2010</v>
@@ -3444,7 +3453,7 @@
         <v>11</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>130</v>
@@ -3458,13 +3467,13 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="D73" s="2">
         <v>2010</v>
@@ -3473,7 +3482,7 @@
         <v>11</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>130</v>
@@ -3487,16 +3496,16 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="D74" s="2">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>11</v>
@@ -3516,16 +3525,16 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="D75" s="2">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>11</v>
@@ -3545,22 +3554,22 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="D76" s="2">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>130</v>
@@ -3569,27 +3578,27 @@
         <v>12</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>289</v>
+        <v>160</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>290</v>
+        <v>161</v>
       </c>
       <c r="D77" s="2">
         <v>2013</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>130</v>
@@ -3598,27 +3607,27 @@
         <v>12</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D78" s="2">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>130</v>
@@ -3632,16 +3641,16 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>291</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D79" s="2">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>11</v>
@@ -3656,47 +3665,47 @@
         <v>12</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>162</v>
+        <v>291</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>163</v>
+        <v>293</v>
       </c>
       <c r="D80" s="2">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="H80" s="4">
         <v>12</v>
       </c>
-      <c r="I80" s="9" t="s">
-        <v>14</v>
+      <c r="I80" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D81" s="2">
         <v>2015</v>
@@ -3704,8 +3713,8 @@
       <c r="E81" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F81" s="5" t="s">
-        <v>81</v>
+      <c r="F81" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>164</v>
@@ -3713,28 +3722,28 @@
       <c r="H81" s="4">
         <v>12</v>
       </c>
-      <c r="I81" s="3" t="s">
+      <c r="I81" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D82" s="2">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>164</v>
@@ -3743,27 +3752,27 @@
         <v>12</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D83" s="2">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F83" s="2" t="s">
-        <v>12</v>
+      <c r="F83" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>164</v>
@@ -3772,21 +3781,21 @@
         <v>12</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="D84" s="2">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>11</v>
@@ -3801,24 +3810,24 @@
         <v>12</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="D85" s="2">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>12</v>
@@ -3830,24 +3839,24 @@
         <v>12</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D86" s="2">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>12</v>
@@ -3859,21 +3868,21 @@
         <v>12</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="D87" s="2">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>11</v>
@@ -3893,13 +3902,13 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="D88" s="2">
         <v>2013</v>
@@ -3922,22 +3931,22 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>179</v>
+        <v>25</v>
       </c>
       <c r="D89" s="2">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>164</v>
@@ -3946,27 +3955,27 @@
         <v>12</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D90" s="2">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>164</v>
@@ -3975,18 +3984,18 @@
         <v>12</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D91" s="2">
         <v>2010</v>
@@ -4009,19 +4018,19 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D92" s="2">
         <v>2010</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>72</v>
@@ -4038,19 +4047,19 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D93" s="2">
         <v>2010</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>72</v>
@@ -4067,13 +4076,13 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>37</v>
+        <v>186</v>
       </c>
       <c r="D94" s="2">
         <v>2010</v>
@@ -4096,19 +4105,19 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>189</v>
+        <v>37</v>
       </c>
       <c r="D95" s="2">
         <v>2010</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>72</v>
@@ -4125,19 +4134,19 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
+        <v>16</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D96" s="2">
+        <v>2010</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="D96" s="2">
-        <v>2011</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>72</v>
@@ -4153,46 +4162,46 @@
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="6">
-        <v>1</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D97" s="6">
-        <v>2013</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="G97" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="H97" s="7">
-        <v>12</v>
-      </c>
-      <c r="I97" s="8" t="s">
-        <v>24</v>
+      <c r="A97" s="2">
+        <v>17</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D97" s="2">
+        <v>2011</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H97" s="4">
+        <v>12</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>53</v>
       </c>
       <c r="D98" s="6">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>11</v>
@@ -4207,24 +4216,24 @@
         <v>12</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>196</v>
+        <v>53</v>
       </c>
       <c r="D99" s="6">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>91</v>
@@ -4236,21 +4245,21 @@
         <v>12</v>
       </c>
       <c r="I99" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D100" s="6">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>17</v>
@@ -4265,27 +4274,27 @@
         <v>12</v>
       </c>
       <c r="I100" s="8" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>60</v>
+        <v>198</v>
       </c>
       <c r="D101" s="6">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="E101" s="6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="G101" s="6" t="s">
         <v>193</v>
@@ -4294,27 +4303,27 @@
         <v>12</v>
       </c>
       <c r="I101" s="8" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D102" s="6">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="G102" s="6" t="s">
         <v>193</v>
@@ -4323,27 +4332,27 @@
         <v>12</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>202</v>
+        <v>25</v>
       </c>
       <c r="D103" s="6">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E103" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G103" s="6" t="s">
         <v>193</v>
@@ -4357,16 +4366,16 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="D104" s="6">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>11</v>
@@ -4381,27 +4390,27 @@
         <v>12</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>205</v>
+        <v>150</v>
       </c>
       <c r="D105" s="6">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G105" s="6" t="s">
         <v>193</v>
@@ -4410,27 +4419,27 @@
         <v>12</v>
       </c>
       <c r="I105" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="D106" s="6">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G106" s="6" t="s">
         <v>193</v>
@@ -4439,24 +4448,24 @@
         <v>12</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>208</v>
+        <v>141</v>
       </c>
       <c r="D107" s="6">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F107" s="6" t="s">
         <v>81</v>
@@ -4468,27 +4477,27 @@
         <v>12</v>
       </c>
       <c r="I107" s="8" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D108" s="6">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="G108" s="6" t="s">
         <v>193</v>
@@ -4497,27 +4506,27 @@
         <v>12</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D109" s="6">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="E109" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="G109" s="6" t="s">
         <v>193</v>
@@ -4526,18 +4535,18 @@
         <v>12</v>
       </c>
       <c r="I109" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D110" s="6">
         <v>2012</v>
@@ -4546,7 +4555,7 @@
         <v>11</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G110" s="6" t="s">
         <v>193</v>
@@ -4560,16 +4569,16 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D111" s="6">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E111" s="6" t="s">
         <v>11</v>
@@ -4584,27 +4593,27 @@
         <v>12</v>
       </c>
       <c r="I111" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>163</v>
+        <v>210</v>
       </c>
       <c r="D112" s="6">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="E112" s="6" t="s">
         <v>11</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="G112" s="6" t="s">
         <v>193</v>
@@ -4613,24 +4622,24 @@
         <v>12</v>
       </c>
       <c r="I112" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>218</v>
+        <v>163</v>
       </c>
       <c r="D113" s="6">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="E113" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F113" s="6" t="s">
         <v>12</v>
@@ -4642,24 +4651,24 @@
         <v>12</v>
       </c>
       <c r="I113" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D114" s="6">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="E114" s="6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F114" s="6" t="s">
         <v>12</v>
@@ -4671,21 +4680,21 @@
         <v>12</v>
       </c>
       <c r="I114" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>145</v>
+        <v>219</v>
       </c>
       <c r="D115" s="6">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E115" s="6" t="s">
         <v>11</v>
@@ -4705,16 +4714,16 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>221</v>
+        <v>145</v>
       </c>
       <c r="D116" s="6">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="E116" s="6" t="s">
         <v>11</v>
@@ -4729,27 +4738,27 @@
         <v>12</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D117" s="6">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G117" s="6" t="s">
         <v>193</v>
@@ -4763,13 +4772,13 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D118" s="6">
         <v>2009</v>
@@ -4792,13 +4801,13 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D119" s="6">
         <v>2009</v>
@@ -4820,51 +4829,51 @@
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
-        <v>1</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D120" s="2">
-        <v>2013</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G120" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H120" s="4">
-        <v>12</v>
-      </c>
-      <c r="I120" s="3" t="s">
-        <v>24</v>
+      <c r="A120" s="6">
+        <v>23</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D120" s="6">
+        <v>2009</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H120" s="7">
+        <v>12</v>
+      </c>
+      <c r="I120" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>145</v>
+        <v>228</v>
       </c>
       <c r="D121" s="2">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F121" s="5" t="s">
+      <c r="F121" s="2" t="s">
         <v>91</v>
       </c>
       <c r="G121" s="2" t="s">
@@ -4874,27 +4883,27 @@
         <v>12</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>232</v>
+        <v>145</v>
       </c>
       <c r="D122" s="2">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>229</v>
@@ -4903,27 +4912,27 @@
         <v>12</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D123" s="2">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F123" s="2" t="s">
-        <v>81</v>
+        <v>17</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>229</v>
@@ -4932,27 +4941,27 @@
         <v>12</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D124" s="2">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>229</v>
@@ -4961,18 +4970,18 @@
         <v>12</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D125" s="2">
         <v>2012</v>
@@ -4981,7 +4990,7 @@
         <v>17</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>229</v>
@@ -4995,22 +5004,22 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>154</v>
+        <v>238</v>
       </c>
       <c r="D126" s="2">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>229</v>
@@ -5019,27 +5028,27 @@
         <v>12</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D127" s="2">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>229</v>
@@ -5048,27 +5057,27 @@
         <v>12</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>242</v>
+        <v>161</v>
       </c>
       <c r="D128" s="2">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>229</v>
@@ -5077,27 +5086,27 @@
         <v>12</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D129" s="2">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>229</v>
@@ -5111,22 +5120,22 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>157</v>
+        <v>244</v>
       </c>
       <c r="D130" s="2">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>229</v>
@@ -5135,21 +5144,21 @@
         <v>12</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D131" s="2">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>11</v>
@@ -5164,27 +5173,27 @@
         <v>12</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="D132" s="2">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>229</v>
@@ -5198,22 +5207,22 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="D133" s="2">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>229</v>
@@ -5222,18 +5231,18 @@
         <v>12</v>
       </c>
       <c r="I133" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>249</v>
+        <v>37</v>
       </c>
       <c r="D134" s="2">
         <v>2010</v>
@@ -5242,7 +5251,7 @@
         <v>11</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>229</v>
@@ -5256,16 +5265,16 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>65</v>
+        <v>249</v>
       </c>
       <c r="D135" s="2">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>11</v>
@@ -5280,27 +5289,27 @@
         <v>12</v>
       </c>
       <c r="I135" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>250</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>251</v>
+        <v>65</v>
       </c>
       <c r="D136" s="2">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>229</v>
@@ -5309,27 +5318,27 @@
         <v>12</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D137" s="2">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>229</v>
@@ -5338,27 +5347,27 @@
         <v>12</v>
       </c>
       <c r="I137" s="3" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D138" s="2">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>229</v>
@@ -5367,27 +5376,27 @@
         <v>12</v>
       </c>
       <c r="I138" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D139" s="2">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="E139" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>229</v>
@@ -5396,18 +5405,18 @@
         <v>12</v>
       </c>
       <c r="I139" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D140" s="2">
         <v>2014</v>
@@ -5430,22 +5439,22 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D141" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>229</v>
@@ -5454,56 +5463,56 @@
         <v>12</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D142" s="2">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="H142" s="4">
         <v>12</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D143" s="2">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E143" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F143" s="5" t="s">
-        <v>81</v>
+      <c r="F143" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>263</v>
@@ -5512,24 +5521,24 @@
         <v>12</v>
       </c>
       <c r="I143" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>163</v>
+        <v>265</v>
       </c>
       <c r="D144" s="2">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>81</v>
@@ -5546,22 +5555,22 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="D145" s="2">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F145" s="2" t="s">
-        <v>91</v>
+      <c r="F145" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>263</v>
@@ -5570,27 +5579,27 @@
         <v>12</v>
       </c>
       <c r="I145" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>76</v>
+        <v>267</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>268</v>
+        <v>95</v>
       </c>
       <c r="D146" s="2">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>263</v>
@@ -5604,16 +5613,16 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>269</v>
+        <v>76</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D147" s="2">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>11</v>
@@ -5633,16 +5642,16 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D148" s="2">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>11</v>
@@ -5657,27 +5666,27 @@
         <v>12</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D149" s="2">
         <v>2013</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>263</v>
@@ -5691,22 +5700,22 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="D150" s="2">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="E150" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>263</v>
@@ -5715,24 +5724,24 @@
         <v>12</v>
       </c>
       <c r="I150" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="D151" s="2">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>49</v>
@@ -5744,18 +5753,18 @@
         <v>12</v>
       </c>
       <c r="I151" s="3" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="D152" s="2">
         <v>2014</v>
@@ -5764,7 +5773,7 @@
         <v>11</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>263</v>
@@ -5778,22 +5787,22 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>157</v>
+        <v>278</v>
       </c>
       <c r="D153" s="2">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>263</v>
@@ -5802,30 +5811,30 @@
         <v>12</v>
       </c>
       <c r="I153" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="D154" s="2">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="H154" s="4">
         <v>12</v>
@@ -5836,22 +5845,22 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>283</v>
+        <v>143</v>
       </c>
       <c r="D155" s="2">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F155" s="5" t="s">
-        <v>81</v>
+        <v>11</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>281</v>
@@ -5860,27 +5869,27 @@
         <v>12</v>
       </c>
       <c r="I155" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D156" s="2">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>281</v>
@@ -5889,18 +5898,18 @@
         <v>12</v>
       </c>
       <c r="I156" s="3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>143</v>
+        <v>285</v>
       </c>
       <c r="D157" s="2">
         <v>2013</v>
@@ -5908,8 +5917,8 @@
       <c r="E157" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F157" s="2" t="s">
-        <v>49</v>
+      <c r="F157" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>281</v>
@@ -5923,16 +5932,16 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>286</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>287</v>
+        <v>143</v>
       </c>
       <c r="D158" s="2">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>17</v>
@@ -5947,24 +5956,24 @@
         <v>12</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>143</v>
+        <v>287</v>
       </c>
       <c r="D159" s="2">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>49</v>
@@ -5976,11 +5985,40 @@
         <v>12</v>
       </c>
       <c r="I159" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>6</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D160" s="2">
+        <v>2018</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H160" s="4">
+        <v>12</v>
+      </c>
+      <c r="I160" s="3" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I159" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I160" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/2014.01.21 - Gara Carbonera/ISCRITTI 1 TROFEO CARBONERA 2024.xlsx
+++ b/2014.01.21 - Gara Carbonera/ISCRITTI 1 TROFEO CARBONERA 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\932197\Documents\dati_locali\git-hub\karate\2014.01.21 - Gara Carbonera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A21F66F-BD62-4CD2-AEDA-5C78E870088A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97762255-C189-49E6-AA50-F17BADA5B89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -940,10 +940,10 @@
     <t>OLEXANDR</t>
   </si>
   <si>
-    <t>SCALDAFERRI*</t>
-  </si>
-  <si>
     <t>GONZATO FONTANA*</t>
+  </si>
+  <si>
+    <t>SCALDAFERRI</t>
   </si>
 </sst>
 </file>
@@ -1598,7 +1598,7 @@
   <dimension ref="A1:I158"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3790,7 +3790,7 @@
         <v>20</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C76" s="19" t="s">
         <v>159</v>
@@ -3811,7 +3811,7 @@
         <v>12</v>
       </c>
       <c r="I76" s="20" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -3819,7 +3819,7 @@
         <v>21</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C77" s="19" t="s">
         <v>291</v>

--- a/2014.01.21 - Gara Carbonera/ISCRITTI 1 TROFEO CARBONERA 2024.xlsx
+++ b/2014.01.21 - Gara Carbonera/ISCRITTI 1 TROFEO CARBONERA 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\932197\Documents\dati_locali\git-hub\karate\2014.01.21 - Gara Carbonera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97762255-C189-49E6-AA50-F17BADA5B89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B1141A-08CD-41F0-8853-99C5C6CEC259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="SQUADRE" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INDIVIDUALE!$A$1:$I$158</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INDIVIDUALE!$A$1:$I$161</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SQUADRE!$A$1:$J$38</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="306">
   <si>
     <t>ISCRITTO</t>
   </si>
@@ -944,6 +944,21 @@
   </si>
   <si>
     <t>SCALDAFERRI</t>
+  </si>
+  <si>
+    <t>CHIRITA</t>
+  </si>
+  <si>
+    <t>OVIDIU ALEXANDRU</t>
+  </si>
+  <si>
+    <t>SILVIU ANDREI</t>
+  </si>
+  <si>
+    <t>FASAN</t>
+  </si>
+  <si>
+    <t>BIANCA BI-GI</t>
   </si>
 </sst>
 </file>
@@ -1595,10 +1610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I158"/>
+  <dimension ref="A1:I161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3062,25 +3077,25 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="19">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>113</v>
+        <v>301</v>
       </c>
       <c r="C51" s="19" t="s">
-        <v>114</v>
+        <v>302</v>
       </c>
       <c r="D51" s="19">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F51" s="19" t="s">
         <v>91</v>
       </c>
       <c r="G51" s="19" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="H51" s="21">
         <v>12</v>
@@ -3091,80 +3106,80 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="19">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>116</v>
+        <v>301</v>
       </c>
       <c r="C52" s="19" t="s">
-        <v>117</v>
+        <v>303</v>
       </c>
       <c r="D52" s="19">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="E52" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F52" s="22" t="s">
-        <v>49</v>
+      <c r="F52" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="G52" s="19" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="H52" s="21">
         <v>12</v>
       </c>
       <c r="I52" s="20" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="19">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>118</v>
+        <v>304</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D53" s="19">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="22" t="s">
-        <v>109</v>
+        <v>17</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>305</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="H53" s="21">
         <v>12</v>
       </c>
       <c r="I53" s="20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D54" s="19">
         <v>2015</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G54" s="19" t="s">
         <v>115</v>
@@ -3178,13 +3193,13 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>295</v>
+        <v>116</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D55" s="19">
         <v>2014</v>
@@ -3192,8 +3207,8 @@
       <c r="E55" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F55" s="19" t="s">
-        <v>12</v>
+      <c r="F55" s="22" t="s">
+        <v>49</v>
       </c>
       <c r="G55" s="19" t="s">
         <v>115</v>
@@ -3207,22 +3222,22 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C56" s="19" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D56" s="19">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="E56" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="19" t="s">
-        <v>91</v>
+      <c r="F56" s="22" t="s">
+        <v>109</v>
       </c>
       <c r="G56" s="19" t="s">
         <v>115</v>
@@ -3231,27 +3246,27 @@
         <v>12</v>
       </c>
       <c r="I56" s="20" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C57" s="19" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D57" s="19">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E57" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G57" s="19" t="s">
         <v>115</v>
@@ -3260,50 +3275,50 @@
         <v>12</v>
       </c>
       <c r="I57" s="20" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>127</v>
+        <v>295</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D58" s="19">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="H58" s="21">
         <v>12</v>
       </c>
       <c r="I58" s="20" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="19">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D59" s="19">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="E59" s="19" t="s">
         <v>11</v>
@@ -3312,27 +3327,27 @@
         <v>91</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="H59" s="21">
         <v>12</v>
       </c>
       <c r="I59" s="20" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D60" s="19">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E60" s="19" t="s">
         <v>11</v>
@@ -3341,27 +3356,27 @@
         <v>91</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="H60" s="21">
         <v>12</v>
       </c>
       <c r="I60" s="20" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C61" s="19" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D61" s="19">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="E61" s="19" t="s">
         <v>17</v>
@@ -3381,22 +3396,22 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
       <c r="D62" s="19">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="E62" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="G62" s="19" t="s">
         <v>129</v>
@@ -3405,21 +3420,21 @@
         <v>12</v>
       </c>
       <c r="I62" s="20" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="19">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D63" s="19">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="E63" s="19" t="s">
         <v>11</v>
@@ -3434,27 +3449,27 @@
         <v>12</v>
       </c>
       <c r="I63" s="20" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D64" s="19">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="G64" s="19" t="s">
         <v>129</v>
@@ -3463,27 +3478,27 @@
         <v>12</v>
       </c>
       <c r="I64" s="20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="19">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>142</v>
+        <v>28</v>
       </c>
       <c r="D65" s="19">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="E65" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="G65" s="19" t="s">
         <v>129</v>
@@ -3492,27 +3507,27 @@
         <v>12</v>
       </c>
       <c r="I65" s="20" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D66" s="19">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="E66" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="G66" s="19" t="s">
         <v>129</v>
@@ -3521,27 +3536,27 @@
         <v>12</v>
       </c>
       <c r="I66" s="20" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="19">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="D67" s="19">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E67" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G67" s="19" t="s">
         <v>129</v>
@@ -3550,27 +3565,27 @@
         <v>12</v>
       </c>
       <c r="I67" s="20" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="19">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D68" s="19">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E68" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F68" s="19" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="G68" s="19" t="s">
         <v>129</v>
@@ -3579,27 +3594,27 @@
         <v>12</v>
       </c>
       <c r="I68" s="20" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="19">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D69" s="19">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E69" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="G69" s="19" t="s">
         <v>129</v>
@@ -3608,27 +3623,27 @@
         <v>12</v>
       </c>
       <c r="I69" s="20" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="19">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>151</v>
+        <v>34</v>
       </c>
       <c r="D70" s="19">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="E70" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G70" s="19" t="s">
         <v>129</v>
@@ -3637,27 +3652,27 @@
         <v>12</v>
       </c>
       <c r="I70" s="20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="19">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D71" s="19">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="E71" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F71" s="19" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="G71" s="19" t="s">
         <v>129</v>
@@ -3666,18 +3681,18 @@
         <v>12</v>
       </c>
       <c r="I71" s="20" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="19">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="D72" s="19">
         <v>2010</v>
@@ -3686,7 +3701,7 @@
         <v>11</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G72" s="19" t="s">
         <v>129</v>
@@ -3700,13 +3715,13 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="19">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D73" s="19">
         <v>2010</v>
@@ -3715,7 +3730,7 @@
         <v>11</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="G73" s="19" t="s">
         <v>129</v>
@@ -3729,22 +3744,22 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="19">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="D74" s="19">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E74" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="G74" s="19" t="s">
         <v>129</v>
@@ -3758,13 +3773,13 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="19">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D75" s="19">
         <v>2010</v>
@@ -3773,7 +3788,7 @@
         <v>11</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G75" s="19" t="s">
         <v>129</v>
@@ -3787,22 +3802,22 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="19">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>300</v>
+        <v>155</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D76" s="19">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="E76" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F76" s="19" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="G76" s="19" t="s">
         <v>129</v>
@@ -3811,27 +3826,27 @@
         <v>12</v>
       </c>
       <c r="I76" s="20" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="19">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>299</v>
+        <v>157</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>291</v>
+        <v>95</v>
       </c>
       <c r="D77" s="19">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F77" s="19" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="G77" s="19" t="s">
         <v>129</v>
@@ -3840,21 +3855,21 @@
         <v>12</v>
       </c>
       <c r="I77" s="20" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="19">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>296</v>
+        <v>158</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>297</v>
+        <v>37</v>
       </c>
       <c r="D78" s="19">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="E78" s="19" t="s">
         <v>11</v>
@@ -3869,27 +3884,27 @@
         <v>12</v>
       </c>
       <c r="I78" s="20" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="19">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>298</v>
+        <v>159</v>
       </c>
       <c r="D79" s="19">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="E79" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="G79" s="19" t="s">
         <v>129</v>
@@ -3898,30 +3913,30 @@
         <v>12</v>
       </c>
       <c r="I79" s="20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="19">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>160</v>
+        <v>299</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>161</v>
+        <v>291</v>
       </c>
       <c r="D80" s="19">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E80" s="19" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="G80" s="19" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="H80" s="21">
         <v>12</v>
@@ -3932,80 +3947,80 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="19">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>163</v>
+        <v>296</v>
       </c>
       <c r="C81" s="19" t="s">
-        <v>164</v>
+        <v>297</v>
       </c>
       <c r="D81" s="19">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="E81" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F81" s="22" t="s">
-        <v>81</v>
+      <c r="F81" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="G81" s="19" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="H81" s="21">
         <v>12</v>
       </c>
       <c r="I81" s="20" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="19">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>165</v>
+        <v>296</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>166</v>
+        <v>298</v>
       </c>
       <c r="D82" s="19">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="E82" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F82" s="22" t="s">
-        <v>109</v>
+      <c r="F82" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="G82" s="19" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="H82" s="21">
         <v>12</v>
       </c>
       <c r="I82" s="20" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="D83" s="19">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="E83" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F83" s="19" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="G83" s="19" t="s">
         <v>162</v>
@@ -4014,27 +4029,27 @@
         <v>12</v>
       </c>
       <c r="I83" s="20" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C84" s="19" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="D84" s="19">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="E84" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F84" s="19" t="s">
-        <v>12</v>
+      <c r="F84" s="22" t="s">
+        <v>81</v>
       </c>
       <c r="G84" s="19" t="s">
         <v>162</v>
@@ -4043,27 +4058,27 @@
         <v>12</v>
       </c>
       <c r="I84" s="20" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C85" s="19" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D85" s="19">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F85" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="F85" s="22" t="s">
+        <v>109</v>
       </c>
       <c r="G85" s="19" t="s">
         <v>162</v>
@@ -4072,21 +4087,21 @@
         <v>12</v>
       </c>
       <c r="I85" s="20" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D86" s="19">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E86" s="19" t="s">
         <v>11</v>
@@ -4101,18 +4116,18 @@
         <v>12</v>
       </c>
       <c r="I86" s="20" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="19">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C87" s="19" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D87" s="19">
         <v>2013</v>
@@ -4135,19 +4150,19 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="19">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C88" s="19" t="s">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="D88" s="19">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E88" s="19" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F88" s="19" t="s">
         <v>12</v>
@@ -4159,27 +4174,27 @@
         <v>12</v>
       </c>
       <c r="I88" s="20" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D89" s="19">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="E89" s="19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F89" s="19" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="G89" s="19" t="s">
         <v>162</v>
@@ -4188,27 +4203,27 @@
         <v>12</v>
       </c>
       <c r="I89" s="20" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="19">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="D90" s="19">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="E90" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F90" s="19" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G90" s="19" t="s">
         <v>162</v>
@@ -4217,27 +4232,27 @@
         <v>12</v>
       </c>
       <c r="I90" s="20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="19">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="D91" s="19">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="E91" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F91" s="19" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G91" s="19" t="s">
         <v>162</v>
@@ -4246,27 +4261,27 @@
         <v>12</v>
       </c>
       <c r="I91" s="20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="19">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D92" s="19">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E92" s="19" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="G92" s="19" t="s">
         <v>162</v>
@@ -4275,18 +4290,18 @@
         <v>12</v>
       </c>
       <c r="I92" s="20" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="19">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B93" s="19" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>37</v>
+        <v>179</v>
       </c>
       <c r="D93" s="19">
         <v>2010</v>
@@ -4309,19 +4324,19 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="19">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D94" s="19">
         <v>2010</v>
       </c>
       <c r="E94" s="19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F94" s="19" t="s">
         <v>72</v>
@@ -4338,16 +4353,16 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="19">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D95" s="19">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E95" s="19" t="s">
         <v>11</v>
@@ -4366,107 +4381,107 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="23">
-        <v>1</v>
-      </c>
-      <c r="B96" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="C96" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D96" s="23">
-        <v>2013</v>
-      </c>
-      <c r="E96" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F96" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="G96" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="H96" s="24">
-        <v>12</v>
-      </c>
-      <c r="I96" s="25" t="s">
-        <v>24</v>
+      <c r="A96" s="19">
+        <v>14</v>
+      </c>
+      <c r="B96" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C96" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D96" s="19">
+        <v>2010</v>
+      </c>
+      <c r="E96" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G96" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="H96" s="21">
+        <v>12</v>
+      </c>
+      <c r="I96" s="20" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="23">
-        <v>2</v>
-      </c>
-      <c r="B97" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="C97" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D97" s="23">
-        <v>2016</v>
-      </c>
-      <c r="E97" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F97" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="G97" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="H97" s="24">
-        <v>12</v>
-      </c>
-      <c r="I97" s="25" t="s">
-        <v>26</v>
+      <c r="A97" s="19">
+        <v>15</v>
+      </c>
+      <c r="B97" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C97" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="D97" s="19">
+        <v>2010</v>
+      </c>
+      <c r="E97" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G97" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="H97" s="21">
+        <v>12</v>
+      </c>
+      <c r="I97" s="20" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="23">
-        <v>3</v>
-      </c>
-      <c r="B98" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="C98" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="D98" s="23">
-        <v>2013</v>
-      </c>
-      <c r="E98" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F98" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="G98" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="H98" s="24">
-        <v>12</v>
-      </c>
-      <c r="I98" s="25" t="s">
-        <v>24</v>
+      <c r="A98" s="19">
+        <v>16</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C98" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="D98" s="19">
+        <v>2011</v>
+      </c>
+      <c r="E98" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="G98" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="H98" s="21">
+        <v>12</v>
+      </c>
+      <c r="I98" s="20" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>194</v>
+        <v>53</v>
       </c>
       <c r="D99" s="23">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E99" s="23" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F99" s="23" t="s">
         <v>91</v>
@@ -4478,27 +4493,27 @@
         <v>12</v>
       </c>
       <c r="I99" s="25" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D100" s="23">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="E100" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F100" s="23" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="G100" s="23" t="s">
         <v>189</v>
@@ -4507,24 +4522,24 @@
         <v>12</v>
       </c>
       <c r="I100" s="25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>25</v>
+        <v>192</v>
       </c>
       <c r="D101" s="23">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E101" s="23" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F101" s="23" t="s">
         <v>91</v>
@@ -4536,27 +4551,27 @@
         <v>12</v>
       </c>
       <c r="I101" s="25" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D102" s="23">
         <v>2015</v>
       </c>
       <c r="E102" s="23" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F102" s="23" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G102" s="23" t="s">
         <v>189</v>
@@ -4570,22 +4585,22 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>293</v>
+        <v>195</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>149</v>
+        <v>60</v>
       </c>
       <c r="D103" s="23">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="E103" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F103" s="23" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="G103" s="23" t="s">
         <v>189</v>
@@ -4594,27 +4609,27 @@
         <v>12</v>
       </c>
       <c r="I103" s="25" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B104" s="23" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>201</v>
+        <v>25</v>
       </c>
       <c r="D104" s="23">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="E104" s="23" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F104" s="23" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="G104" s="23" t="s">
         <v>189</v>
@@ -4623,21 +4638,21 @@
         <v>12</v>
       </c>
       <c r="I104" s="25" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>292</v>
+        <v>197</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>140</v>
+        <v>198</v>
       </c>
       <c r="D105" s="23">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E105" s="23" t="s">
         <v>11</v>
@@ -4657,22 +4672,22 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>203</v>
+        <v>293</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
       <c r="D106" s="23">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="E106" s="23" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F106" s="23" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G106" s="23" t="s">
         <v>189</v>
@@ -4681,27 +4696,27 @@
         <v>12</v>
       </c>
       <c r="I106" s="25" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D107" s="23">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E107" s="23" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F107" s="23" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="G107" s="23" t="s">
         <v>189</v>
@@ -4715,22 +4730,22 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>207</v>
+        <v>292</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>208</v>
+        <v>140</v>
       </c>
       <c r="D108" s="23">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="E108" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F108" s="23" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G108" s="23" t="s">
         <v>189</v>
@@ -4739,24 +4754,24 @@
         <v>12</v>
       </c>
       <c r="I108" s="25" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D109" s="23">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="E109" s="23" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F109" s="23" t="s">
         <v>81</v>
@@ -4768,27 +4783,27 @@
         <v>12</v>
       </c>
       <c r="I109" s="25" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C110" s="23" t="s">
         <v>206</v>
       </c>
       <c r="D110" s="23">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E110" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F110" s="23" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="G110" s="23" t="s">
         <v>189</v>
@@ -4802,22 +4817,22 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>161</v>
+        <v>208</v>
       </c>
       <c r="D111" s="23">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="E111" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F111" s="23" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="G111" s="23" t="s">
         <v>189</v>
@@ -4831,22 +4846,22 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C112" s="23" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D112" s="23">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E112" s="23" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F112" s="23" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="G112" s="23" t="s">
         <v>189</v>
@@ -4855,27 +4870,27 @@
         <v>12</v>
       </c>
       <c r="I112" s="25" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="C113" s="23" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D113" s="23">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="E113" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F113" s="23" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="G113" s="23" t="s">
         <v>189</v>
@@ -4884,21 +4899,21 @@
         <v>12</v>
       </c>
       <c r="I113" s="25" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B114" s="23" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="C114" s="23" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="D114" s="23">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E114" s="23" t="s">
         <v>11</v>
@@ -4918,19 +4933,19 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B115" s="23" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D115" s="23">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E115" s="23" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F115" s="23" t="s">
         <v>12</v>
@@ -4947,22 +4962,22 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B116" s="23" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D116" s="23">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="E116" s="23" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F116" s="23" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G116" s="23" t="s">
         <v>189</v>
@@ -4971,27 +4986,27 @@
         <v>12</v>
       </c>
       <c r="I116" s="25" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B117" s="23" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>221</v>
+        <v>144</v>
       </c>
       <c r="D117" s="23">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="E117" s="23" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F117" s="23" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G117" s="23" t="s">
         <v>189</v>
@@ -5000,27 +5015,27 @@
         <v>12</v>
       </c>
       <c r="I117" s="25" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D118" s="23">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E118" s="23" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F118" s="23" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G118" s="23" t="s">
         <v>189</v>
@@ -5033,107 +5048,107 @@
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="19">
-        <v>1</v>
-      </c>
-      <c r="B119" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="C119" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="D119" s="19">
-        <v>2013</v>
-      </c>
-      <c r="E119" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F119" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="G119" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="H119" s="21">
-        <v>12</v>
-      </c>
-      <c r="I119" s="20" t="s">
-        <v>24</v>
+      <c r="A119" s="23">
+        <v>21</v>
+      </c>
+      <c r="B119" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="C119" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="D119" s="23">
+        <v>2009</v>
+      </c>
+      <c r="E119" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F119" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G119" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="H119" s="24">
+        <v>12</v>
+      </c>
+      <c r="I119" s="25" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="19">
-        <v>3</v>
-      </c>
-      <c r="B120" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="C120" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="D120" s="19">
-        <v>2011</v>
-      </c>
-      <c r="E120" s="19" t="s">
+      <c r="A120" s="23">
+        <v>22</v>
+      </c>
+      <c r="B120" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="C120" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="D120" s="23">
+        <v>2009</v>
+      </c>
+      <c r="E120" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F120" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="G120" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="H120" s="21">
-        <v>12</v>
-      </c>
-      <c r="I120" s="20" t="s">
+      <c r="F120" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G120" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="H120" s="24">
+        <v>12</v>
+      </c>
+      <c r="I120" s="25" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="19">
-        <v>4</v>
-      </c>
-      <c r="B121" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="C121" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="D121" s="19">
-        <v>2014</v>
-      </c>
-      <c r="E121" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F121" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="G121" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="H121" s="21">
-        <v>12</v>
-      </c>
-      <c r="I121" s="20" t="s">
-        <v>14</v>
+      <c r="A121" s="23">
+        <v>23</v>
+      </c>
+      <c r="B121" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C121" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="D121" s="23">
+        <v>2009</v>
+      </c>
+      <c r="E121" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F121" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="G121" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="H121" s="24">
+        <v>12</v>
+      </c>
+      <c r="I121" s="25" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B122" s="19" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C122" s="19" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D122" s="19">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E122" s="19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F122" s="19" t="s">
         <v>91</v>
@@ -5150,21 +5165,21 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C123" s="19" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D123" s="19">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E123" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F123" s="19" t="s">
+      <c r="F123" s="22" t="s">
         <v>109</v>
       </c>
       <c r="G123" s="19" t="s">
@@ -5174,27 +5189,27 @@
         <v>12</v>
       </c>
       <c r="I123" s="20" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C124" s="19" t="s">
-        <v>153</v>
+        <v>230</v>
       </c>
       <c r="D124" s="19">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E124" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F124" s="19" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G124" s="19" t="s">
         <v>225</v>
@@ -5208,22 +5223,22 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="19">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>159</v>
+        <v>232</v>
       </c>
       <c r="D125" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="E125" s="19" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F125" s="19" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="G125" s="19" t="s">
         <v>225</v>
@@ -5237,22 +5252,22 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="19">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D126" s="19">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="E126" s="19" t="s">
         <v>17</v>
       </c>
       <c r="F126" s="19" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="G126" s="19" t="s">
         <v>225</v>
@@ -5261,21 +5276,21 @@
         <v>12</v>
       </c>
       <c r="I126" s="20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>240</v>
+        <v>153</v>
       </c>
       <c r="D127" s="19">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="E127" s="19" t="s">
         <v>11</v>
@@ -5290,27 +5305,27 @@
         <v>12</v>
       </c>
       <c r="I127" s="20" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="19">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C128" s="19" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D128" s="19">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E128" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F128" s="19" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="G128" s="19" t="s">
         <v>225</v>
@@ -5319,24 +5334,24 @@
         <v>12</v>
       </c>
       <c r="I128" s="20" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="19">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C129" s="19" t="s">
-        <v>153</v>
+        <v>238</v>
       </c>
       <c r="D129" s="19">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="E129" s="19" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F129" s="19" t="s">
         <v>81</v>
@@ -5348,21 +5363,21 @@
         <v>12</v>
       </c>
       <c r="I129" s="20" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="19">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>142</v>
+        <v>240</v>
       </c>
       <c r="D130" s="19">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="E130" s="19" t="s">
         <v>11</v>
@@ -5377,27 +5392,27 @@
         <v>12</v>
       </c>
       <c r="I130" s="20" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="19">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="D131" s="19">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="E131" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F131" s="19" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="G131" s="19" t="s">
         <v>225</v>
@@ -5406,21 +5421,21 @@
         <v>12</v>
       </c>
       <c r="I131" s="20" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="19">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>245</v>
+        <v>153</v>
       </c>
       <c r="D132" s="19">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="E132" s="19" t="s">
         <v>11</v>
@@ -5435,27 +5450,27 @@
         <v>12</v>
       </c>
       <c r="I132" s="20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="19">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="D133" s="19">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E133" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F133" s="19" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G133" s="19" t="s">
         <v>225</v>
@@ -5469,22 +5484,22 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="19">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B134" s="19" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C134" s="19" t="s">
-        <v>247</v>
+        <v>37</v>
       </c>
       <c r="D134" s="19">
-        <v>2018</v>
+        <v>2010</v>
       </c>
       <c r="E134" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F134" s="19" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="G134" s="19" t="s">
         <v>225</v>
@@ -5493,21 +5508,21 @@
         <v>12</v>
       </c>
       <c r="I134" s="20" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="19">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D135" s="19">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="E135" s="19" t="s">
         <v>11</v>
@@ -5522,27 +5537,27 @@
         <v>12</v>
       </c>
       <c r="I135" s="20" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="19">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>251</v>
+        <v>65</v>
       </c>
       <c r="D136" s="19">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="E136" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F136" s="19" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G136" s="19" t="s">
         <v>225</v>
@@ -5551,27 +5566,27 @@
         <v>12</v>
       </c>
       <c r="I136" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="19">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B137" s="19" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C137" s="19" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D137" s="19">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="E137" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F137" s="19" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="G137" s="19" t="s">
         <v>225</v>
@@ -5580,21 +5595,21 @@
         <v>12</v>
       </c>
       <c r="I137" s="20" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="19">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C138" s="19" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D138" s="19">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E138" s="19" t="s">
         <v>11</v>
@@ -5614,16 +5629,16 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="19">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="C139" s="19" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D139" s="19">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E139" s="19" t="s">
         <v>11</v>
@@ -5638,27 +5653,27 @@
         <v>12</v>
       </c>
       <c r="I139" s="20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="19">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B140" s="19" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="C140" s="19" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="D140" s="19">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E140" s="19" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
       <c r="F140" s="19" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G140" s="19" t="s">
         <v>225</v>
@@ -5667,30 +5682,30 @@
         <v>12</v>
       </c>
       <c r="I140" s="20" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="19">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C141" s="19" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D141" s="19">
         <v>2014</v>
       </c>
       <c r="E141" s="19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F141" s="19" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="G141" s="19" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="H141" s="21">
         <v>12</v>
@@ -5701,54 +5716,54 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="19">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="C142" s="19" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D142" s="19">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="E142" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F142" s="22" t="s">
-        <v>81</v>
+        <v>11</v>
+      </c>
+      <c r="F142" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="G142" s="19" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="H142" s="21">
         <v>12</v>
       </c>
       <c r="I142" s="20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="19">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>262</v>
+        <v>286</v>
       </c>
       <c r="C143" s="19" t="s">
-        <v>161</v>
+        <v>287</v>
       </c>
       <c r="D143" s="19">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="E143" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F143" s="22" t="s">
-        <v>81</v>
+        <v>288</v>
+      </c>
+      <c r="F143" s="19" t="s">
+        <v>72</v>
       </c>
       <c r="G143" s="19" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="H143" s="21">
         <v>12</v>
@@ -5759,22 +5774,22 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C144" s="19" t="s">
-        <v>95</v>
+        <v>258</v>
       </c>
       <c r="D144" s="19">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E144" s="19" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F144" s="19" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="G144" s="19" t="s">
         <v>259</v>
@@ -5788,22 +5803,22 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B145" s="19" t="s">
-        <v>76</v>
+        <v>260</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D145" s="19">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="E145" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F145" s="19" t="s">
-        <v>49</v>
+        <v>17</v>
+      </c>
+      <c r="F145" s="22" t="s">
+        <v>81</v>
       </c>
       <c r="G145" s="19" t="s">
         <v>259</v>
@@ -5812,27 +5827,27 @@
         <v>12</v>
       </c>
       <c r="I145" s="20" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>266</v>
+        <v>161</v>
       </c>
       <c r="D146" s="19">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="E146" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F146" s="19" t="s">
-        <v>49</v>
+      <c r="F146" s="22" t="s">
+        <v>81</v>
       </c>
       <c r="G146" s="19" t="s">
         <v>259</v>
@@ -5841,27 +5856,27 @@
         <v>12</v>
       </c>
       <c r="I146" s="20" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="19">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>268</v>
+        <v>95</v>
       </c>
       <c r="D147" s="19">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="E147" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F147" s="19" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="G147" s="19" t="s">
         <v>259</v>
@@ -5870,27 +5885,27 @@
         <v>12</v>
       </c>
       <c r="I147" s="20" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="19">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>269</v>
+        <v>76</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D148" s="19">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E148" s="19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F148" s="19" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="G148" s="19" t="s">
         <v>259</v>
@@ -5899,24 +5914,24 @@
         <v>12</v>
       </c>
       <c r="I148" s="20" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="19">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B149" s="19" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="D149" s="19">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="E149" s="19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F149" s="19" t="s">
         <v>49</v>
@@ -5928,21 +5943,21 @@
         <v>12</v>
       </c>
       <c r="I149" s="20" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="D150" s="19">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E150" s="19" t="s">
         <v>11</v>
@@ -5957,24 +5972,24 @@
         <v>12</v>
       </c>
       <c r="I150" s="20" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="19">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D151" s="19">
         <v>2013</v>
       </c>
       <c r="E151" s="19" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F151" s="19" t="s">
         <v>81</v>
@@ -5991,22 +6006,22 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="19">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>156</v>
+        <v>258</v>
       </c>
       <c r="D152" s="19">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="E152" s="19" t="s">
         <v>17</v>
       </c>
       <c r="F152" s="19" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="G152" s="19" t="s">
         <v>259</v>
@@ -6015,76 +6030,76 @@
         <v>12</v>
       </c>
       <c r="I152" s="20" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="19">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>142</v>
+        <v>249</v>
       </c>
       <c r="D153" s="19">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="E153" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F153" s="19" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="G153" s="19" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="H153" s="21">
         <v>12</v>
       </c>
       <c r="I153" s="20" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="19">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D154" s="19">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="E154" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F154" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F154" s="19" t="s">
         <v>81</v>
       </c>
       <c r="G154" s="19" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="H154" s="21">
         <v>12</v>
       </c>
       <c r="I154" s="20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="19">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B155" s="19" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C155" s="19" t="s">
-        <v>280</v>
+        <v>156</v>
       </c>
       <c r="D155" s="19">
         <v>2013</v>
@@ -6092,11 +6107,11 @@
       <c r="E155" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F155" s="22" t="s">
-        <v>91</v>
+      <c r="F155" s="19" t="s">
+        <v>12</v>
       </c>
       <c r="G155" s="19" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="H155" s="21">
         <v>12</v>
@@ -6107,22 +6122,22 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B156" s="19" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C156" s="19" t="s">
         <v>142</v>
       </c>
       <c r="D156" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="E156" s="19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F156" s="19" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="G156" s="19" t="s">
         <v>276</v>
@@ -6136,22 +6151,22 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B157" s="19" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C157" s="19" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D157" s="19">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="E157" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F157" s="19" t="s">
-        <v>49</v>
+      <c r="F157" s="22" t="s">
+        <v>81</v>
       </c>
       <c r="G157" s="19" t="s">
         <v>276</v>
@@ -6160,27 +6175,27 @@
         <v>12</v>
       </c>
       <c r="I157" s="20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B158" s="19" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C158" s="19" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="D158" s="19">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="E158" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F158" s="19" t="s">
-        <v>49</v>
+        <v>17</v>
+      </c>
+      <c r="F158" s="22" t="s">
+        <v>91</v>
       </c>
       <c r="G158" s="19" t="s">
         <v>276</v>
@@ -6189,11 +6204,98 @@
         <v>12</v>
       </c>
       <c r="I158" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="19">
+        <v>4</v>
+      </c>
+      <c r="B159" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C159" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D159" s="19">
+        <v>2013</v>
+      </c>
+      <c r="E159" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F159" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G159" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="H159" s="21">
+        <v>12</v>
+      </c>
+      <c r="I159" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="19">
+        <v>5</v>
+      </c>
+      <c r="B160" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C160" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="D160" s="19">
+        <v>2016</v>
+      </c>
+      <c r="E160" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F160" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G160" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="H160" s="21">
+        <v>12</v>
+      </c>
+      <c r="I160" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A161" s="19">
+        <v>6</v>
+      </c>
+      <c r="B161" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="C161" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D161" s="19">
+        <v>2018</v>
+      </c>
+      <c r="E161" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F161" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G161" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="H161" s="21">
+        <v>12</v>
+      </c>
+      <c r="I161" s="20" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I158" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I161" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/2014.01.21 - Gara Carbonera/ISCRITTI 1 TROFEO CARBONERA 2024.xlsx
+++ b/2014.01.21 - Gara Carbonera/ISCRITTI 1 TROFEO CARBONERA 2024.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\932197\Documents\dati_locali\git-hub\karate\2014.01.21 - Gara Carbonera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B1141A-08CD-41F0-8853-99C5C6CEC259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA04444B-37F0-4117-BBBA-4C0208E69149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDIVIDUALE" sheetId="1" r:id="rId1"/>
     <sheet name="SQUADRE" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INDIVIDUALE!$A$1:$I$161</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">INDIVIDUALE!$A$1:$I$160</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SQUADRE!$A$1:$J$38</definedName>
   </definedNames>
   <calcPr calcId="191029" concurrentCalc="0"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="304">
   <si>
     <t>ISCRITTO</t>
   </si>
@@ -344,12 +344,6 @@
   </si>
   <si>
     <t>DANNY</t>
-  </si>
-  <si>
-    <t>DEL COL</t>
-  </si>
-  <si>
-    <t>ATHENA</t>
   </si>
   <si>
     <t>ANASTASI</t>
@@ -1610,10 +1604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I161"/>
+  <dimension ref="A1:I160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2874,7 +2868,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>101</v>
@@ -2883,13 +2877,13 @@
         <v>102</v>
       </c>
       <c r="D44" s="19">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F44" s="22" t="s">
-        <v>49</v>
+        <v>11</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="G44" s="19" t="s">
         <v>98</v>
@@ -2898,12 +2892,12 @@
         <v>12</v>
       </c>
       <c r="I44" s="20" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B45" s="19" t="s">
         <v>103</v>
@@ -2912,10 +2906,10 @@
         <v>104</v>
       </c>
       <c r="D45" s="19">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F45" s="19" t="s">
         <v>91</v>
@@ -2927,12 +2921,12 @@
         <v>12</v>
       </c>
       <c r="I45" s="20" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B46" s="19" t="s">
         <v>105</v>
@@ -2941,13 +2935,13 @@
         <v>106</v>
       </c>
       <c r="D46" s="19">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>17</v>
       </c>
       <c r="F46" s="19" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="G46" s="19" t="s">
         <v>98</v>
@@ -2956,27 +2950,27 @@
         <v>12</v>
       </c>
       <c r="I46" s="20" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C47" s="19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D47" s="19">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="E47" s="19" t="s">
         <v>17</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="G47" s="19" t="s">
         <v>98</v>
@@ -2985,27 +2979,27 @@
         <v>12</v>
       </c>
       <c r="I47" s="20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B48" s="19" t="s">
         <v>110</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D48" s="19">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F48" s="19" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="G48" s="19" t="s">
         <v>98</v>
@@ -3014,27 +3008,27 @@
         <v>12</v>
       </c>
       <c r="I48" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>112</v>
+        <v>287</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>40</v>
+        <v>288</v>
       </c>
       <c r="D49" s="19">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="G49" s="19" t="s">
         <v>98</v>
@@ -3043,27 +3037,27 @@
         <v>12</v>
       </c>
       <c r="I49" s="20" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="C50" s="19" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="D50" s="19">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="G50" s="19" t="s">
         <v>98</v>
@@ -3077,16 +3071,16 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B51" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="C51" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="C51" s="19" t="s">
-        <v>302</v>
-      </c>
       <c r="D51" s="19">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="E51" s="19" t="s">
         <v>11</v>
@@ -3101,27 +3095,27 @@
         <v>12</v>
       </c>
       <c r="I51" s="20" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C52" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" s="19">
+        <v>2017</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="19" t="s">
         <v>303</v>
-      </c>
-      <c r="D52" s="19">
-        <v>2010</v>
-      </c>
-      <c r="E52" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>91</v>
       </c>
       <c r="G52" s="19" t="s">
         <v>98</v>
@@ -3130,59 +3124,59 @@
         <v>12</v>
       </c>
       <c r="I52" s="20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="19">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>304</v>
+        <v>111</v>
       </c>
       <c r="C53" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D53" s="19">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E53" s="19" t="s">
         <v>17</v>
       </c>
       <c r="F53" s="19" t="s">
-        <v>305</v>
+        <v>91</v>
       </c>
       <c r="G53" s="19" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="H53" s="21">
         <v>12</v>
       </c>
       <c r="I53" s="20" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B54" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="19">
+        <v>2014</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G54" s="19" t="s">
         <v>113</v>
-      </c>
-      <c r="C54" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="D54" s="19">
-        <v>2015</v>
-      </c>
-      <c r="E54" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F54" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="G54" s="19" t="s">
-        <v>115</v>
       </c>
       <c r="H54" s="21">
         <v>12</v>
@@ -3193,7 +3187,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B55" s="19" t="s">
         <v>116</v>
@@ -3202,27 +3196,27 @@
         <v>117</v>
       </c>
       <c r="D55" s="19">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="E55" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F55" s="22" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="G55" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H55" s="21">
         <v>12</v>
       </c>
       <c r="I55" s="20" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B56" s="19" t="s">
         <v>118</v>
@@ -3231,45 +3225,45 @@
         <v>119</v>
       </c>
       <c r="D56" s="19">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="E56" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="22" t="s">
-        <v>109</v>
+      <c r="F56" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H56" s="21">
         <v>12</v>
       </c>
       <c r="I56" s="20" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B57" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="C57" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="C57" s="19" t="s">
-        <v>121</v>
-      </c>
       <c r="D57" s="19">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E57" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H57" s="21">
         <v>12</v>
@@ -3280,25 +3274,25 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>295</v>
+        <v>121</v>
       </c>
       <c r="C58" s="19" t="s">
         <v>122</v>
       </c>
       <c r="D58" s="19">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E58" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F58" s="19" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="G58" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H58" s="21">
         <v>12</v>
@@ -3309,7 +3303,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B59" s="19" t="s">
         <v>123</v>
@@ -3318,7 +3312,7 @@
         <v>124</v>
       </c>
       <c r="D59" s="19">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E59" s="19" t="s">
         <v>11</v>
@@ -3327,18 +3321,18 @@
         <v>91</v>
       </c>
       <c r="G59" s="19" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H59" s="21">
         <v>12</v>
       </c>
       <c r="I59" s="20" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="19">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B60" s="19" t="s">
         <v>125</v>
@@ -3350,13 +3344,13 @@
         <v>2016</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F60" s="19" t="s">
         <v>91</v>
       </c>
       <c r="G60" s="19" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="H60" s="21">
         <v>12</v>
@@ -3367,45 +3361,45 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C61" s="19" t="s">
         <v>128</v>
       </c>
       <c r="D61" s="19">
-        <v>2016</v>
+        <v>2010</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F61" s="19" t="s">
         <v>91</v>
       </c>
       <c r="G61" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H61" s="21">
         <v>12</v>
       </c>
       <c r="I61" s="20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B62" s="19" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C62" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D62" s="19">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="E62" s="19" t="s">
         <v>11</v>
@@ -3414,105 +3408,105 @@
         <v>91</v>
       </c>
       <c r="G62" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H62" s="21">
         <v>12</v>
       </c>
       <c r="I62" s="20" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B63" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C63" s="19" t="s">
-        <v>130</v>
-      </c>
       <c r="D63" s="19">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F63" s="19" t="s">
         <v>91</v>
       </c>
       <c r="G63" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H63" s="21">
         <v>12</v>
       </c>
       <c r="I63" s="20" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="D64" s="19">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F64" s="19" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H64" s="21">
         <v>12</v>
       </c>
       <c r="I64" s="20" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B65" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="C65" s="19" t="s">
-        <v>28</v>
-      </c>
       <c r="D65" s="19">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E65" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H65" s="21">
         <v>12</v>
       </c>
       <c r="I65" s="20" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B66" s="19" t="s">
         <v>137</v>
@@ -3521,27 +3515,27 @@
         <v>138</v>
       </c>
       <c r="D66" s="19">
-        <v>2016</v>
+        <v>2011</v>
       </c>
       <c r="E66" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F66" s="19" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H66" s="21">
         <v>12</v>
       </c>
       <c r="I66" s="20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B67" s="19" t="s">
         <v>139</v>
@@ -3550,27 +3544,27 @@
         <v>140</v>
       </c>
       <c r="D67" s="19">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="E67" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H67" s="21">
         <v>12</v>
       </c>
       <c r="I67" s="20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B68" s="19" t="s">
         <v>141</v>
@@ -3579,7 +3573,7 @@
         <v>142</v>
       </c>
       <c r="D68" s="19">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E68" s="19" t="s">
         <v>11</v>
@@ -3588,76 +3582,76 @@
         <v>12</v>
       </c>
       <c r="G68" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H68" s="21">
         <v>12</v>
       </c>
       <c r="I68" s="20" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B69" s="19" t="s">
         <v>143</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="D69" s="19">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="E69" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F69" s="19" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H69" s="21">
         <v>12</v>
       </c>
       <c r="I69" s="20" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B70" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="C70" s="19" t="s">
-        <v>34</v>
-      </c>
       <c r="D70" s="19">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="E70" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F70" s="19" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H70" s="21">
         <v>12</v>
       </c>
       <c r="I70" s="20" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B71" s="19" t="s">
         <v>146</v>
@@ -3666,7 +3660,7 @@
         <v>147</v>
       </c>
       <c r="D71" s="19">
-        <v>2015</v>
+        <v>2010</v>
       </c>
       <c r="E71" s="19" t="s">
         <v>11</v>
@@ -3675,18 +3669,18 @@
         <v>91</v>
       </c>
       <c r="G71" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H71" s="21">
         <v>12</v>
       </c>
       <c r="I71" s="20" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="19">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B72" s="19" t="s">
         <v>148</v>
@@ -3701,10 +3695,10 @@
         <v>11</v>
       </c>
       <c r="F72" s="19" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="G72" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H72" s="21">
         <v>12</v>
@@ -3715,7 +3709,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="19">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B73" s="19" t="s">
         <v>150</v>
@@ -3730,10 +3724,10 @@
         <v>11</v>
       </c>
       <c r="F73" s="19" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H73" s="21">
         <v>12</v>
@@ -3744,13 +3738,13 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B74" s="19" t="s">
         <v>152</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="D74" s="19">
         <v>2010</v>
@@ -3759,10 +3753,10 @@
         <v>11</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H74" s="21">
         <v>12</v>
@@ -3773,13 +3767,13 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B75" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C75" s="19" t="s">
         <v>154</v>
-      </c>
-      <c r="C75" s="19" t="s">
-        <v>20</v>
       </c>
       <c r="D75" s="19">
         <v>2010</v>
@@ -3788,10 +3782,10 @@
         <v>11</v>
       </c>
       <c r="F75" s="19" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G75" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H75" s="21">
         <v>12</v>
@@ -3802,16 +3796,16 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B76" s="19" t="s">
         <v>155</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>156</v>
+        <v>95</v>
       </c>
       <c r="D76" s="19">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E76" s="19" t="s">
         <v>11</v>
@@ -3820,7 +3814,7 @@
         <v>91</v>
       </c>
       <c r="G76" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H76" s="21">
         <v>12</v>
@@ -3831,16 +3825,16 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="D77" s="19">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E77" s="19" t="s">
         <v>11</v>
@@ -3849,7 +3843,7 @@
         <v>91</v>
       </c>
       <c r="G77" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H77" s="21">
         <v>12</v>
@@ -3860,103 +3854,103 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>158</v>
+        <v>298</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>37</v>
+        <v>157</v>
       </c>
       <c r="D78" s="19">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="E78" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="G78" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H78" s="21">
         <v>12</v>
       </c>
       <c r="I78" s="20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C79" s="19" t="s">
-        <v>159</v>
+        <v>289</v>
       </c>
       <c r="D79" s="19">
         <v>2013</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>109</v>
+        <v>12</v>
       </c>
       <c r="G79" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H79" s="21">
         <v>12</v>
       </c>
       <c r="I79" s="20" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="19">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C80" s="19" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="D80" s="19">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="E80" s="19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F80" s="19" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="G80" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H80" s="21">
         <v>12</v>
       </c>
       <c r="I80" s="20" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="19">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B81" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="C81" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="C81" s="19" t="s">
-        <v>297</v>
-      </c>
       <c r="D81" s="19">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="E81" s="19" t="s">
         <v>11</v>
@@ -3965,53 +3959,53 @@
         <v>91</v>
       </c>
       <c r="G81" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H81" s="21">
         <v>12</v>
       </c>
       <c r="I81" s="20" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="19">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>296</v>
+        <v>158</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>298</v>
+        <v>159</v>
       </c>
       <c r="D82" s="19">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="E82" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="G82" s="19" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="H82" s="21">
         <v>12</v>
       </c>
       <c r="I82" s="20" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D83" s="19">
         <v>2015</v>
@@ -4019,11 +4013,11 @@
       <c r="E83" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F83" s="19" t="s">
-        <v>49</v>
+      <c r="F83" s="22" t="s">
+        <v>81</v>
       </c>
       <c r="G83" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H83" s="21">
         <v>12</v>
@@ -4034,7 +4028,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B84" s="19" t="s">
         <v>163</v>
@@ -4043,27 +4037,27 @@
         <v>164</v>
       </c>
       <c r="D84" s="19">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="E84" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F84" s="22" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="G84" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H84" s="21">
         <v>12</v>
       </c>
       <c r="I84" s="20" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B85" s="19" t="s">
         <v>165</v>
@@ -4072,36 +4066,36 @@
         <v>166</v>
       </c>
       <c r="D85" s="19">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E85" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F85" s="22" t="s">
-        <v>109</v>
+      <c r="F85" s="19" t="s">
+        <v>12</v>
       </c>
       <c r="G85" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H85" s="21">
         <v>12</v>
       </c>
       <c r="I85" s="20" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B86" s="19" t="s">
         <v>167</v>
       </c>
       <c r="C86" s="19" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="D86" s="19">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="E86" s="19" t="s">
         <v>11</v>
@@ -4110,47 +4104,47 @@
         <v>12</v>
       </c>
       <c r="G86" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H86" s="21">
         <v>12</v>
       </c>
       <c r="I86" s="20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B87" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C87" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C87" s="19" t="s">
-        <v>140</v>
-      </c>
       <c r="D87" s="19">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F87" s="19" t="s">
         <v>12</v>
       </c>
       <c r="G87" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H87" s="21">
         <v>12</v>
       </c>
       <c r="I87" s="20" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B88" s="19" t="s">
         <v>170</v>
@@ -4159,36 +4153,36 @@
         <v>171</v>
       </c>
       <c r="D88" s="19">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="E88" s="19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F88" s="19" t="s">
         <v>12</v>
       </c>
       <c r="G88" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H88" s="21">
         <v>12</v>
       </c>
       <c r="I88" s="20" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B89" s="19" t="s">
         <v>172</v>
       </c>
       <c r="C89" s="19" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="D89" s="19">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E89" s="19" t="s">
         <v>11</v>
@@ -4197,7 +4191,7 @@
         <v>12</v>
       </c>
       <c r="G89" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H89" s="21">
         <v>12</v>
@@ -4208,13 +4202,13 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="D90" s="19">
         <v>2013</v>
@@ -4226,7 +4220,7 @@
         <v>12</v>
       </c>
       <c r="G90" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H90" s="21">
         <v>12</v>
@@ -4237,36 +4231,36 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B91" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C91" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="C91" s="19" t="s">
-        <v>25</v>
-      </c>
       <c r="D91" s="19">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E91" s="19" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F91" s="19" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="G91" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H91" s="21">
         <v>12</v>
       </c>
       <c r="I91" s="20" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B92" s="19" t="s">
         <v>176</v>
@@ -4275,33 +4269,33 @@
         <v>177</v>
       </c>
       <c r="D92" s="19">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="E92" s="19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="G92" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H92" s="21">
         <v>12</v>
       </c>
       <c r="I92" s="20" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B93" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C93" s="19" t="s">
         <v>178</v>
-      </c>
-      <c r="C93" s="19" t="s">
-        <v>179</v>
       </c>
       <c r="D93" s="19">
         <v>2010</v>
@@ -4313,7 +4307,7 @@
         <v>72</v>
       </c>
       <c r="G93" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H93" s="21">
         <v>12</v>
@@ -4324,10 +4318,10 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B94" s="19" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="C94" s="19" t="s">
         <v>180</v>
@@ -4342,7 +4336,7 @@
         <v>72</v>
       </c>
       <c r="G94" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H94" s="21">
         <v>12</v>
@@ -4353,13 +4347,13 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="19">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B95" s="19" t="s">
         <v>181</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>182</v>
+        <v>37</v>
       </c>
       <c r="D95" s="19">
         <v>2010</v>
@@ -4371,7 +4365,7 @@
         <v>72</v>
       </c>
       <c r="G95" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H95" s="21">
         <v>12</v>
@@ -4382,25 +4376,25 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="19">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B96" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C96" s="19" t="s">
         <v>183</v>
-      </c>
-      <c r="C96" s="19" t="s">
-        <v>37</v>
       </c>
       <c r="D96" s="19">
         <v>2010</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F96" s="19" t="s">
         <v>72</v>
       </c>
       <c r="G96" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H96" s="21">
         <v>12</v>
@@ -4411,7 +4405,7 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B97" s="19" t="s">
         <v>184</v>
@@ -4420,16 +4414,16 @@
         <v>185</v>
       </c>
       <c r="D97" s="19">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E97" s="19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F97" s="19" t="s">
         <v>72</v>
       </c>
       <c r="G97" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H97" s="21">
         <v>12</v>
@@ -4439,37 +4433,37 @@
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="19">
-        <v>16</v>
-      </c>
-      <c r="B98" s="19" t="s">
+      <c r="A98" s="23">
+        <v>1</v>
+      </c>
+      <c r="B98" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="C98" s="19" t="s">
+      <c r="C98" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D98" s="23">
+        <v>2013</v>
+      </c>
+      <c r="E98" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="G98" s="23" t="s">
         <v>187</v>
       </c>
-      <c r="D98" s="19">
-        <v>2011</v>
-      </c>
-      <c r="E98" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F98" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="G98" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="H98" s="21">
-        <v>12</v>
-      </c>
-      <c r="I98" s="20" t="s">
-        <v>29</v>
+      <c r="H98" s="24">
+        <v>12</v>
+      </c>
+      <c r="I98" s="25" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B99" s="23" t="s">
         <v>188</v>
@@ -4478,7 +4472,7 @@
         <v>53</v>
       </c>
       <c r="D99" s="23">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="E99" s="23" t="s">
         <v>11</v>
@@ -4487,47 +4481,47 @@
         <v>91</v>
       </c>
       <c r="G99" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H99" s="24">
         <v>12</v>
       </c>
       <c r="I99" s="25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B100" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C100" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="C100" s="23" t="s">
-        <v>53</v>
-      </c>
       <c r="D100" s="23">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="E100" s="23" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F100" s="23" t="s">
         <v>91</v>
       </c>
       <c r="G100" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H100" s="24">
         <v>12</v>
       </c>
       <c r="I100" s="25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B101" s="23" t="s">
         <v>191</v>
@@ -4536,7 +4530,7 @@
         <v>192</v>
       </c>
       <c r="D101" s="23">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="E101" s="23" t="s">
         <v>17</v>
@@ -4545,94 +4539,94 @@
         <v>91</v>
       </c>
       <c r="G101" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H101" s="24">
         <v>12</v>
       </c>
       <c r="I101" s="25" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B102" s="23" t="s">
         <v>193</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>194</v>
+        <v>60</v>
       </c>
       <c r="D102" s="23">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="E102" s="23" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F102" s="23" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="G102" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H102" s="24">
         <v>12</v>
       </c>
       <c r="I102" s="25" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B103" s="23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="D103" s="23">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="E103" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F103" s="23" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="G103" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H103" s="24">
         <v>12</v>
       </c>
       <c r="I103" s="25" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B104" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C104" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="C104" s="23" t="s">
-        <v>25</v>
-      </c>
       <c r="D104" s="23">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E104" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F104" s="23" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G104" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H104" s="24">
         <v>12</v>
@@ -4643,112 +4637,112 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B105" s="23" t="s">
-        <v>197</v>
+        <v>291</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="D105" s="23">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E105" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F105" s="23" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G105" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H105" s="24">
         <v>12</v>
       </c>
       <c r="I105" s="25" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B106" s="23" t="s">
-        <v>293</v>
+        <v>198</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>149</v>
+        <v>199</v>
       </c>
       <c r="D106" s="23">
-        <v>2016</v>
+        <v>2009</v>
       </c>
       <c r="E106" s="23" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F106" s="23" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="G106" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H106" s="24">
         <v>12</v>
       </c>
       <c r="I106" s="25" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>201</v>
+        <v>138</v>
       </c>
       <c r="D107" s="23">
-        <v>2009</v>
+        <v>2014</v>
       </c>
       <c r="E107" s="23" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F107" s="23" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G107" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H107" s="24">
         <v>12</v>
       </c>
       <c r="I107" s="25" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="23">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>292</v>
+        <v>201</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>140</v>
+        <v>202</v>
       </c>
       <c r="D108" s="23">
         <v>2014</v>
       </c>
       <c r="E108" s="23" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F108" s="23" t="s">
         <v>81</v>
       </c>
       <c r="G108" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H108" s="24">
         <v>12</v>
@@ -4759,7 +4753,7 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="23">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B109" s="23" t="s">
         <v>203</v>
@@ -4768,27 +4762,27 @@
         <v>204</v>
       </c>
       <c r="D109" s="23">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="E109" s="23" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F109" s="23" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="G109" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H109" s="24">
         <v>12</v>
       </c>
       <c r="I109" s="25" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B110" s="23" t="s">
         <v>205</v>
@@ -4797,27 +4791,27 @@
         <v>206</v>
       </c>
       <c r="D110" s="23">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="E110" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F110" s="23" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="G110" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H110" s="24">
         <v>12</v>
       </c>
       <c r="I110" s="25" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="23">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B111" s="23" t="s">
         <v>207</v>
@@ -4832,10 +4826,10 @@
         <v>11</v>
       </c>
       <c r="F111" s="23" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G111" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H111" s="24">
         <v>12</v>
@@ -4846,16 +4840,16 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="23">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B112" s="23" t="s">
         <v>209</v>
       </c>
       <c r="C112" s="23" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D112" s="23">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="E112" s="23" t="s">
         <v>11</v>
@@ -4864,114 +4858,114 @@
         <v>81</v>
       </c>
       <c r="G112" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H112" s="24">
         <v>12</v>
       </c>
       <c r="I112" s="25" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="23">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B113" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C113" s="23" t="s">
-        <v>206</v>
+        <v>159</v>
       </c>
       <c r="D113" s="23">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="E113" s="23" t="s">
         <v>11</v>
       </c>
       <c r="F113" s="23" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="G113" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H113" s="24">
         <v>12</v>
       </c>
       <c r="I113" s="25" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B114" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="C114" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="C114" s="23" t="s">
-        <v>161</v>
-      </c>
       <c r="D114" s="23">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="E114" s="23" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F114" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G114" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H114" s="24">
         <v>12</v>
       </c>
       <c r="I114" s="25" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="23">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B115" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C115" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="C115" s="23" t="s">
-        <v>214</v>
-      </c>
       <c r="D115" s="23">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="E115" s="23" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F115" s="23" t="s">
         <v>12</v>
       </c>
       <c r="G115" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H115" s="24">
         <v>12</v>
       </c>
       <c r="I115" s="25" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B116" s="23" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>215</v>
+        <v>142</v>
       </c>
       <c r="D116" s="23">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="E116" s="23" t="s">
         <v>11</v>
@@ -4980,7 +4974,7 @@
         <v>12</v>
       </c>
       <c r="G116" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H116" s="24">
         <v>12</v>
@@ -4991,16 +4985,16 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="23">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B117" s="23" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>144</v>
+        <v>215</v>
       </c>
       <c r="D117" s="23">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="E117" s="23" t="s">
         <v>11</v>
@@ -5009,18 +5003,18 @@
         <v>12</v>
       </c>
       <c r="G117" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H117" s="24">
         <v>12</v>
       </c>
       <c r="I117" s="25" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="23">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B118" s="23" t="s">
         <v>216</v>
@@ -5029,16 +5023,16 @@
         <v>217</v>
       </c>
       <c r="D118" s="23">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="E118" s="23" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F118" s="23" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="G118" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H118" s="24">
         <v>12</v>
@@ -5049,7 +5043,7 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B119" s="23" t="s">
         <v>218</v>
@@ -5067,7 +5061,7 @@
         <v>72</v>
       </c>
       <c r="G119" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H119" s="24">
         <v>12</v>
@@ -5078,13 +5072,13 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B120" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="C120" s="23" t="s">
         <v>220</v>
-      </c>
-      <c r="C120" s="23" t="s">
-        <v>221</v>
       </c>
       <c r="D120" s="23">
         <v>2009</v>
@@ -5096,7 +5090,7 @@
         <v>72</v>
       </c>
       <c r="G120" s="23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H120" s="24">
         <v>12</v>
@@ -5106,66 +5100,66 @@
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="23">
-        <v>23</v>
-      </c>
-      <c r="B121" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="C121" s="23" t="s">
+      <c r="A121" s="19">
+        <v>1</v>
+      </c>
+      <c r="B121" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C121" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="D121" s="23">
-        <v>2009</v>
-      </c>
-      <c r="E121" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="F121" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="G121" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="H121" s="24">
-        <v>12</v>
-      </c>
-      <c r="I121" s="25" t="s">
-        <v>29</v>
+      <c r="D121" s="19">
+        <v>2013</v>
+      </c>
+      <c r="E121" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F121" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G121" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="H121" s="21">
+        <v>12</v>
+      </c>
+      <c r="I121" s="20" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B122" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="D122" s="19">
+        <v>2011</v>
+      </c>
+      <c r="E122" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F122" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G122" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="C122" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="D122" s="19">
-        <v>2013</v>
-      </c>
-      <c r="E122" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F122" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="G122" s="19" t="s">
-        <v>225</v>
-      </c>
       <c r="H122" s="21">
         <v>12</v>
       </c>
       <c r="I122" s="20" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B123" s="19" t="s">
         <v>227</v>
@@ -5174,27 +5168,27 @@
         <v>228</v>
       </c>
       <c r="D123" s="19">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="E123" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F123" s="22" t="s">
-        <v>109</v>
+        <v>11</v>
+      </c>
+      <c r="F123" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="G123" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H123" s="21">
         <v>12</v>
       </c>
       <c r="I123" s="20" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B124" s="19" t="s">
         <v>229</v>
@@ -5203,27 +5197,27 @@
         <v>230</v>
       </c>
       <c r="D124" s="19">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="E124" s="19" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F124" s="19" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G124" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H124" s="21">
         <v>12</v>
       </c>
       <c r="I124" s="20" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B125" s="19" t="s">
         <v>231</v>
@@ -5238,10 +5232,10 @@
         <v>17</v>
       </c>
       <c r="F125" s="19" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="G125" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H125" s="21">
         <v>12</v>
@@ -5252,94 +5246,94 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B126" s="19" t="s">
         <v>233</v>
       </c>
       <c r="C126" s="19" t="s">
-        <v>234</v>
+        <v>151</v>
       </c>
       <c r="D126" s="19">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="E126" s="19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F126" s="19" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="G126" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H126" s="21">
         <v>12</v>
       </c>
       <c r="I126" s="20" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C127" s="19" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D127" s="19">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E127" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F127" s="19" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="G127" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H127" s="21">
         <v>12</v>
       </c>
       <c r="I127" s="20" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B128" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="C128" s="19" t="s">
         <v>236</v>
       </c>
-      <c r="C128" s="19" t="s">
-        <v>159</v>
-      </c>
       <c r="D128" s="19">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="E128" s="19" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F128" s="19" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="G128" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H128" s="21">
         <v>12</v>
       </c>
       <c r="I128" s="20" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B129" s="19" t="s">
         <v>237</v>
@@ -5348,16 +5342,16 @@
         <v>238</v>
       </c>
       <c r="D129" s="19">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="E129" s="19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F129" s="19" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G129" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H129" s="21">
         <v>12</v>
@@ -5368,45 +5362,45 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B130" s="19" t="s">
         <v>239</v>
       </c>
       <c r="C130" s="19" t="s">
-        <v>240</v>
+        <v>154</v>
       </c>
       <c r="D130" s="19">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="E130" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F130" s="19" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G130" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H130" s="21">
         <v>12</v>
       </c>
       <c r="I130" s="20" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B131" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C131" s="19" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D131" s="19">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="E131" s="19" t="s">
         <v>11</v>
@@ -5415,36 +5409,36 @@
         <v>81</v>
       </c>
       <c r="G131" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H131" s="21">
         <v>12</v>
       </c>
       <c r="I131" s="20" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="C132" s="19" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="D132" s="19">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E132" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F132" s="19" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G132" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H132" s="21">
         <v>12</v>
@@ -5455,42 +5449,42 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="19">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="C133" s="19" t="s">
-        <v>142</v>
+        <v>37</v>
       </c>
       <c r="D133" s="19">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="E133" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F133" s="19" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="G133" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H133" s="21">
         <v>12</v>
       </c>
       <c r="I133" s="20" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="19">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B134" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="C134" s="19" t="s">
         <v>243</v>
-      </c>
-      <c r="C134" s="19" t="s">
-        <v>37</v>
       </c>
       <c r="D134" s="19">
         <v>2010</v>
@@ -5499,10 +5493,10 @@
         <v>11</v>
       </c>
       <c r="F134" s="19" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="G134" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H134" s="21">
         <v>12</v>
@@ -5513,16 +5507,16 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B135" s="19" t="s">
         <v>244</v>
       </c>
       <c r="C135" s="19" t="s">
-        <v>245</v>
+        <v>65</v>
       </c>
       <c r="D135" s="19">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="E135" s="19" t="s">
         <v>11</v>
@@ -5531,47 +5525,47 @@
         <v>81</v>
       </c>
       <c r="G135" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H135" s="21">
         <v>12</v>
       </c>
       <c r="I135" s="20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="19">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B136" s="19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C136" s="19" t="s">
-        <v>65</v>
+        <v>245</v>
       </c>
       <c r="D136" s="19">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="E136" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F136" s="19" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="G136" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H136" s="21">
         <v>12</v>
       </c>
       <c r="I136" s="20" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B137" s="19" t="s">
         <v>246</v>
@@ -5580,27 +5574,27 @@
         <v>247</v>
       </c>
       <c r="D137" s="19">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="E137" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F137" s="19" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="G137" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H137" s="21">
         <v>12</v>
       </c>
       <c r="I137" s="20" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B138" s="19" t="s">
         <v>248</v>
@@ -5609,27 +5603,27 @@
         <v>249</v>
       </c>
       <c r="D138" s="19">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="E138" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F138" s="19" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G138" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H138" s="21">
         <v>12</v>
       </c>
       <c r="I138" s="20" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B139" s="19" t="s">
         <v>250</v>
@@ -5638,27 +5632,27 @@
         <v>251</v>
       </c>
       <c r="D139" s="19">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="E139" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F139" s="19" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G139" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H139" s="21">
         <v>12</v>
       </c>
       <c r="I139" s="20" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B140" s="19" t="s">
         <v>252</v>
@@ -5676,7 +5670,7 @@
         <v>81</v>
       </c>
       <c r="G140" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H140" s="21">
         <v>12</v>
@@ -5687,141 +5681,141 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="19">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B141" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="C141" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="C141" s="19" t="s">
-        <v>255</v>
-      </c>
       <c r="D141" s="19">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E141" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F141" s="19" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G141" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H141" s="21">
         <v>12</v>
       </c>
       <c r="I141" s="20" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="19">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>226</v>
+        <v>284</v>
       </c>
       <c r="C142" s="19" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="D142" s="19">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="E142" s="19" t="s">
-        <v>11</v>
+        <v>286</v>
       </c>
       <c r="F142" s="19" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="G142" s="19" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H142" s="21">
         <v>12</v>
       </c>
       <c r="I142" s="20" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="19">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="C143" s="19" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="D143" s="19">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E143" s="19" t="s">
-        <v>288</v>
+        <v>17</v>
       </c>
       <c r="F143" s="19" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="G143" s="19" t="s">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="H143" s="21">
         <v>12</v>
       </c>
       <c r="I143" s="20" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C144" s="19" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D144" s="19">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="E144" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F144" s="19" t="s">
-        <v>49</v>
+      <c r="F144" s="22" t="s">
+        <v>81</v>
       </c>
       <c r="G144" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H144" s="21">
         <v>12</v>
       </c>
       <c r="I144" s="20" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B145" s="19" t="s">
         <v>260</v>
       </c>
       <c r="C145" s="19" t="s">
-        <v>261</v>
+        <v>159</v>
       </c>
       <c r="D145" s="19">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E145" s="19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F145" s="22" t="s">
         <v>81</v>
       </c>
       <c r="G145" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H145" s="21">
         <v>12</v>
@@ -5832,54 +5826,54 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B146" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="D146" s="19">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="E146" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="F146" s="22" t="s">
-        <v>81</v>
+      <c r="F146" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="G146" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H146" s="21">
         <v>12</v>
       </c>
       <c r="I146" s="20" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B147" s="19" t="s">
-        <v>263</v>
+        <v>76</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>95</v>
+        <v>262</v>
       </c>
       <c r="D147" s="19">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="E147" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F147" s="19" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="G147" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H147" s="21">
         <v>12</v>
@@ -5890,16 +5884,16 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B148" s="19" t="s">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="C148" s="19" t="s">
         <v>264</v>
       </c>
       <c r="D148" s="19">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E148" s="19" t="s">
         <v>11</v>
@@ -5908,7 +5902,7 @@
         <v>49</v>
       </c>
       <c r="G148" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H148" s="21">
         <v>12</v>
@@ -5919,7 +5913,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B149" s="19" t="s">
         <v>265</v>
@@ -5928,7 +5922,7 @@
         <v>266</v>
       </c>
       <c r="D149" s="19">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E149" s="19" t="s">
         <v>11</v>
@@ -5937,18 +5931,18 @@
         <v>49</v>
       </c>
       <c r="G149" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H149" s="21">
         <v>12</v>
       </c>
       <c r="I149" s="20" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="19">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B150" s="19" t="s">
         <v>267</v>
@@ -5960,13 +5954,13 @@
         <v>2013</v>
       </c>
       <c r="E150" s="19" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F150" s="19" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="G150" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H150" s="21">
         <v>12</v>
@@ -5977,112 +5971,112 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B151" s="19" t="s">
         <v>269</v>
       </c>
       <c r="C151" s="19" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="D151" s="19">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="E151" s="19" t="s">
         <v>17</v>
       </c>
       <c r="F151" s="19" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="G151" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H151" s="21">
         <v>12</v>
       </c>
       <c r="I151" s="20" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="D152" s="19">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E152" s="19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F152" s="19" t="s">
         <v>49</v>
       </c>
       <c r="G152" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H152" s="21">
         <v>12</v>
       </c>
       <c r="I152" s="20" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B153" s="19" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="D153" s="19">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="E153" s="19" t="s">
         <v>11</v>
       </c>
       <c r="F153" s="19" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="G153" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H153" s="21">
         <v>12</v>
       </c>
       <c r="I153" s="20" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B154" s="19" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>273</v>
+        <v>154</v>
       </c>
       <c r="D154" s="19">
         <v>2013</v>
       </c>
       <c r="E154" s="19" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F154" s="19" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="G154" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="H154" s="21">
         <v>12</v>
@@ -6093,25 +6087,25 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="19">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B155" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="C155" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="D155" s="19">
+        <v>2012</v>
+      </c>
+      <c r="E155" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F155" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G155" s="19" t="s">
         <v>274</v>
-      </c>
-      <c r="C155" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="D155" s="19">
-        <v>2013</v>
-      </c>
-      <c r="E155" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="F155" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="G155" s="19" t="s">
-        <v>259</v>
       </c>
       <c r="H155" s="21">
         <v>12</v>
@@ -6122,36 +6116,36 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B156" s="19" t="s">
         <v>275</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>142</v>
+        <v>276</v>
       </c>
       <c r="D156" s="19">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="E156" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F156" s="19" t="s">
-        <v>12</v>
+        <v>17</v>
+      </c>
+      <c r="F156" s="22" t="s">
+        <v>81</v>
       </c>
       <c r="G156" s="19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H156" s="21">
         <v>12</v>
       </c>
       <c r="I156" s="20" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B157" s="19" t="s">
         <v>277</v>
@@ -6160,33 +6154,33 @@
         <v>278</v>
       </c>
       <c r="D157" s="19">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="E157" s="19" t="s">
         <v>17</v>
       </c>
       <c r="F157" s="22" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G157" s="19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H157" s="21">
         <v>12</v>
       </c>
       <c r="I157" s="20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B158" s="19" t="s">
         <v>279</v>
       </c>
       <c r="C158" s="19" t="s">
-        <v>280</v>
+        <v>140</v>
       </c>
       <c r="D158" s="19">
         <v>2013</v>
@@ -6194,11 +6188,11 @@
       <c r="E158" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F158" s="22" t="s">
-        <v>91</v>
+      <c r="F158" s="19" t="s">
+        <v>49</v>
       </c>
       <c r="G158" s="19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H158" s="21">
         <v>12</v>
@@ -6209,16 +6203,16 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B159" s="19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C159" s="19" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="D159" s="19">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="E159" s="19" t="s">
         <v>17</v>
@@ -6227,75 +6221,46 @@
         <v>49</v>
       </c>
       <c r="G159" s="19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H159" s="21">
         <v>12</v>
       </c>
       <c r="I159" s="20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B160" s="19" t="s">
         <v>281</v>
       </c>
       <c r="C160" s="19" t="s">
-        <v>282</v>
+        <v>140</v>
       </c>
       <c r="D160" s="19">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="E160" s="19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F160" s="19" t="s">
         <v>49</v>
       </c>
       <c r="G160" s="19" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H160" s="21">
         <v>12</v>
       </c>
       <c r="I160" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="19">
-        <v>6</v>
-      </c>
-      <c r="B161" s="19" t="s">
-        <v>283</v>
-      </c>
-      <c r="C161" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="D161" s="19">
-        <v>2018</v>
-      </c>
-      <c r="E161" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F161" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="G161" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="H161" s="21">
-        <v>12</v>
-      </c>
-      <c r="I161" s="20" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I161" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:I160" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6358,10 +6323,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D2" s="2">
         <v>2009</v>
@@ -6373,7 +6338,7 @@
         <v>72</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H2" s="3">
         <v>15</v>
@@ -6382,7 +6347,7 @@
         <v>29</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -6390,10 +6355,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D3" s="2">
         <v>2009</v>
@@ -6405,14 +6370,14 @@
         <v>72</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="4" t="s">
         <v>29</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -6420,10 +6385,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D4" s="2">
         <v>2009</v>
@@ -6435,14 +6400,14 @@
         <v>72</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H4" s="5"/>
       <c r="I4" s="4" t="s">
         <v>29</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -6450,10 +6415,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D5" s="8">
         <v>2011</v>
@@ -6465,7 +6430,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H5" s="9">
         <v>15</v>
@@ -6474,7 +6439,7 @@
         <v>24</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -6482,10 +6447,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D6" s="8">
         <v>2012</v>
@@ -6497,14 +6462,14 @@
         <v>81</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H6" s="11"/>
       <c r="I6" s="10" t="s">
         <v>24</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -6512,10 +6477,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D7" s="8">
         <v>2012</v>
@@ -6527,14 +6492,14 @@
         <v>12</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="10" t="s">
         <v>24</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -6542,7 +6507,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>71</v>
@@ -6718,7 +6683,7 @@
         <v>11</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>13</v>
@@ -6772,7 +6737,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>13</v>
@@ -6868,10 +6833,10 @@
         <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D20" s="5">
         <v>2010</v>
@@ -6883,7 +6848,7 @@
         <v>81</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H20" s="16"/>
       <c r="I20" s="7" t="s">
@@ -6895,7 +6860,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>37</v>
@@ -6907,10 +6872,10 @@
         <v>11</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="7" t="s">
@@ -6922,22 +6887,22 @@
         <v>3</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D22" s="5">
         <v>2010</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>72</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H22" s="6">
         <v>15</v>
@@ -6951,10 +6916,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D23" s="14">
         <v>2014</v>
@@ -6966,7 +6931,7 @@
         <v>81</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H23" s="17">
         <v>15</v>
@@ -6980,10 +6945,10 @@
         <v>1</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D24" s="14">
         <v>2014</v>
@@ -6995,7 +6960,7 @@
         <v>81</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="15" t="s">
@@ -7007,10 +6972,10 @@
         <v>1</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D25" s="14">
         <v>2015</v>
@@ -7022,7 +6987,7 @@
         <v>81</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H25" s="17"/>
       <c r="I25" s="15" t="s">
@@ -7034,10 +6999,10 @@
         <v>1</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D26" s="36">
         <v>2013</v>
@@ -7049,7 +7014,7 @@
         <v>91</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H26" s="37">
         <v>15</v>
@@ -7063,10 +7028,10 @@
         <v>1</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D27" s="36">
         <v>2013</v>
@@ -7078,7 +7043,7 @@
         <v>91</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H27" s="37"/>
       <c r="I27" s="38" t="s">
@@ -7090,10 +7055,10 @@
         <v>1</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D28" s="36">
         <v>2017</v>
@@ -7105,7 +7070,7 @@
         <v>91</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H28" s="37"/>
       <c r="I28" s="38" t="s">
@@ -7117,10 +7082,10 @@
         <v>1</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D29" s="14">
         <v>2013</v>
@@ -7132,7 +7097,7 @@
         <v>91</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H29" s="17">
         <v>15</v>
@@ -7146,10 +7111,10 @@
         <v>1</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D30" s="14">
         <v>2015</v>
@@ -7161,7 +7126,7 @@
         <v>81</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H30" s="17"/>
       <c r="I30" s="15" t="s">
@@ -7173,10 +7138,10 @@
         <v>1</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D31" s="14">
         <v>2014</v>
@@ -7188,7 +7153,7 @@
         <v>81</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H31" s="17"/>
       <c r="I31" s="15" t="s">
@@ -7200,10 +7165,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D32" s="28">
         <v>2017</v>
@@ -7215,7 +7180,7 @@
         <v>91</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H32" s="29">
         <v>15</v>
@@ -7229,10 +7194,10 @@
         <v>1</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D33" s="28">
         <v>2015</v>
@@ -7244,7 +7209,7 @@
         <v>91</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H33" s="29"/>
       <c r="I33" s="30" t="s">
@@ -7256,10 +7221,10 @@
         <v>1</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D34" s="28">
         <v>2016</v>
@@ -7271,7 +7236,7 @@
         <v>49</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H34" s="29"/>
       <c r="I34" s="30" t="s">
@@ -7283,10 +7248,10 @@
         <v>2</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D35" s="31">
         <v>2013</v>
@@ -7298,7 +7263,7 @@
         <v>12</v>
       </c>
       <c r="G35" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H35" s="32">
         <v>15</v>
@@ -7312,7 +7277,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C36" s="31" t="s">
         <v>20</v>
@@ -7327,7 +7292,7 @@
         <v>81</v>
       </c>
       <c r="G36" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H36" s="32"/>
       <c r="I36" s="33" t="s">
@@ -7339,10 +7304,10 @@
         <v>2</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D37" s="31">
         <v>2010</v>
@@ -7354,7 +7319,7 @@
         <v>91</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H37" s="32"/>
       <c r="I37" s="33" t="s">
@@ -7371,7 +7336,7 @@
       <c r="E38" s="34"/>
       <c r="F38" s="34"/>
       <c r="G38" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
@@ -7386,7 +7351,7 @@
       <c r="E39" s="35"/>
       <c r="F39" s="35"/>
       <c r="G39" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
@@ -7401,7 +7366,7 @@
       <c r="E40" s="35"/>
       <c r="F40" s="35"/>
       <c r="G40" s="28" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H40" s="35">
         <v>15</v>
